--- a/Team-Data/2014-15/2-14-2014-15.xlsx
+++ b/Team-Data/2014-15/2-14-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -777,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,10 +1056,10 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1535,19 +1602,19 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1675,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
         <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -1785,34 +1852,34 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1830,13 +1897,13 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1881,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1905,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2030,13 +2097,13 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2060,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2257,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
@@ -2269,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
@@ -2534,7 +2601,7 @@
         <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.7</v>
@@ -2543,37 +2610,37 @@
         <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2582,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>23</v>
@@ -2624,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
@@ -2764,13 +2831,13 @@
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>19</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2818,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2952,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
         <v>27</v>
@@ -3143,10 +3210,10 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
         <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -3155,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
@@ -3176,13 +3243,13 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>7</v>
@@ -3328,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3725,10 +3792,10 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3850,10 +3917,10 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3880,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,10 +4027,10 @@
         <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3972,25 +4039,25 @@
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
@@ -3999,28 +4066,28 @@
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4035,16 +4102,16 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
         <v>14</v>
       </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
@@ -4059,28 +4126,28 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>30</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4417,10 +4484,10 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.309</v>
+        <v>0.304</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.358</v>
@@ -4530,28 +4597,28 @@
         <v>0.735</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,10 +4627,10 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,22 +4648,22 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4978,10 +5045,10 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>22</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.635</v>
+        <v>0.642</v>
       </c>
       <c r="H28" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I28" t="n">
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,16 +5540,16 @@
         <v>100.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5494,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,25 +5573,25 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,13 +5600,13 @@
         <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -5676,10 +5743,10 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5718,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5946,7 @@
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5900,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -6076,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-14-2014-15</t>
+          <t>2015-02-14</t>
         </is>
       </c>
     </row>
